--- a/Daten/7-Tage-Inzidenz/7tage-inzidenz-top10-kantone.xlsx
+++ b/Daten/7-Tage-Inzidenz/7tage-inzidenz-top10-kantone.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/projects/ddj_kurs/Datawrapper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simon/Documents/DDJ Kurs/git/Daten/7-Tage-Inzidenz/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C8F8DC3-A84E-1F49-A3EE-6D204403772D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A94677ED-AC41-9348-859A-C29023D63243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5980" yWindow="4040" windowWidth="27240" windowHeight="16360" xr2:uid="{019CA177-E0BF-9D45-89CF-7923080FD57E}"/>
   </bookViews>
@@ -422,7 +422,7 @@
   <dimension ref="A1:K572"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
